--- a/biology/Zoologie/Ficopomatus_enigmaticus/Ficopomatus_enigmaticus.xlsx
+++ b/biology/Zoologie/Ficopomatus_enigmaticus/Ficopomatus_enigmaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cascail
-Ficopomatus enigmaticus, communément appelé Cascail[2], est une espèce d'annélides polychètes de la famille des Serpulidae. Il s'agit d'une espèce localement envahissante sur les côtes atlantique et méditerranéenne françaises[2].
+Ficopomatus enigmaticus, communément appelé Cascail, est une espèce d'annélides polychètes de la famille des Serpulidae. Il s'agit d'une espèce localement envahissante sur les côtes atlantique et méditerranéenne françaises.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ficopomatus enigmaticus a été initialement décrite en 1923 par Pierre Fauvel (en) (spécialiste des polychètes) sous le protonyme de Mercierella enigmatica[3]. Cet auteur indique dans son ouvrage de 1923 que cette espèce « forme, sur les tiges de Phragmites, une curieuse association avec un mollusque, Congeria cochleata, un amphipode, Corophium volutator et un bryozoaire, Membranipora lerouxi »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ficopomatus enigmaticus a été initialement décrite en 1923 par Pierre Fauvel (en) (spécialiste des polychètes) sous le protonyme de Mercierella enigmatica. Cet auteur indique dans son ouvrage de 1923 que cette espèce « forme, sur les tiges de Phragmites, une curieuse association avec un mollusque, Congeria cochleata, un amphipode, Corophium volutator et un bryozoaire, Membranipora lerouxi ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de ce ver est d'environ 2,5 cm. Il s'enferme dans un tube calcaire ne dépassant pas les 10 cm et fermé par un opercule en forme de figue.
 Il s'agit d'un ver grégaire dont les constructions groupées de tubes forment des « récifs » d'individus pouvant atteindre plusieurs dizaines de centimètres d'épaisseur.
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pierre Fauvel et Fédération française des Sociétés de sciences naturelles (dir.), Faune de France 5. Polychétes errantes, 1923, 488 p. (lire en ligne)</t>
         </is>
